--- a/bulldozer-prices-predicition-milestone-project/Data/Data Dictionary.xlsx
+++ b/bulldozer-prices-predicition-milestone-project/Data/Data Dictionary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshit\Documents\GitHub\ml-projects\bulldozer-prices-predicition-milestone-project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2CD09-9BC3-4F31-8CE9-B147EB8FE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="0" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="5760" yWindow="3156" windowWidth="17280" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>fiModelDescriptor</t>
   </si>
@@ -232,9 +238,6 @@
   </si>
   <si>
     <t>Steering_Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Don't know what this is </t>
   </si>
   <si>
     <t xml:space="preserve">The size class grouping for a product group. Subsets within product group. </t>
@@ -327,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -440,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,17 +456,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -788,20 +795,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -809,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -817,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -825,7 +832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -833,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" customHeight="1">
+    <row r="5" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -841,7 +848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -849,7 +856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -857,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45">
+    <row r="8" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -865,7 +872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75">
+    <row r="9" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -873,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -881,7 +888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -889,7 +896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
+    <row r="12" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -897,7 +904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -905,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -913,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -921,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -929,18 +936,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30">
+    </row>
+    <row r="18" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -948,7 +952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -956,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -964,7 +968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -972,268 +976,268 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30">
-      <c r="A30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
-      <c r="A32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="44" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="8" t="s">
+    <row r="48" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="8" t="s">
+    <row r="49" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="8" t="s">
+    <row r="51" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="8" t="s">
+    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="31" thickBot="1">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>97</v>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
